--- a/records_maps/Capstone Maps/qzap-map2019.xlsx
+++ b/records_maps/Capstone Maps/qzap-map2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Dropbox/gradschool/CUNYGC/MADH/capstone/Maps and Records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAD259-9AE1-844D-A952-073D7AB6E3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC69BF-A2BF-6149-9E30-B53608B6D655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1840" windowWidth="25680" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -191,9 +191,6 @@
     <t>entitySplitter</t>
   </si>
   <si>
-    <t>ca_objects.date.dates_value</t>
-  </si>
-  <si>
     <t>ca_objects.language</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>{"delimiter": ";","list": "languages"}</t>
+  </si>
+  <si>
+    <t>ca_objects.date.datetext</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -899,7 +899,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -927,15 +927,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1014,15 +1014,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1042,25 +1042,25 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" s="9" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1109,13 +1109,13 @@
     <row r="11" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
@@ -1145,16 +1145,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
@@ -1181,16 +1181,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1217,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
@@ -1249,16 +1249,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -1285,16 +1285,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="8"/>
@@ -1321,16 +1321,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1357,13 +1357,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
@@ -1391,13 +1391,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1425,13 +1425,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1459,13 +1459,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -1493,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>1</v>

--- a/records_maps/Capstone Maps/qzap-map2019.xlsx
+++ b/records_maps/Capstone Maps/qzap-map2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2305535B-962D-2B49-9C22-C34DD5499E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525CC66-1551-DB4B-BF27-2FEFAB123667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="860" windowWidth="19940" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,12 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Mapping</t>
   </si>
@@ -300,9 +300,6 @@
     <t>ca_objects.altID</t>
   </si>
   <si>
-    <t>{"delimiter": ";", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
-  </si>
-  <si>
     <t>{"delimiter": ";", "relationshipType": "creator", "entityType": "ind"}</t>
   </si>
   <si>
@@ -317,12 +314,15 @@
   <si>
     <t>ca_objects.date.datetext</t>
   </si>
+  <si>
+    <t>{"delimiter": ";"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -383,6 +383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,6 +460,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,9 +784,9 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -921,7 +930,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -952,12 +961,14 @@
         <v>86</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -982,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1007,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1047,7 +1058,7 @@
         <v>87</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1072,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
